--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationprescription.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16021" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16021" uniqueCount="809">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -415,7 +415,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1154,10 +1154,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
@@ -1280,10 +1276,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1399,10 +1391,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1625,10 +1613,6 @@
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -2434,10 +2418,6 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -2847,17 +2827,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.05078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2866,26 +2846,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10927,16 +10907,16 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10944,7 +10924,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>278</v>
@@ -11056,7 +11036,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>282</v>
@@ -11168,7 +11148,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>283</v>
@@ -11282,7 +11262,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11398,7 +11378,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>285</v>
@@ -11512,7 +11492,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -11626,7 +11606,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>296</v>
@@ -11738,7 +11718,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>300</v>
@@ -11850,7 +11830,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>301</v>
@@ -11964,7 +11944,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>302</v>
@@ -12080,7 +12060,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>303</v>
@@ -12192,7 +12172,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>308</v>
@@ -12306,7 +12286,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>312</v>
@@ -12418,7 +12398,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>315</v>
@@ -12530,7 +12510,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>317</v>
@@ -12642,7 +12622,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>320</v>
@@ -12754,7 +12734,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>323</v>
@@ -12866,7 +12846,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>327</v>
@@ -12978,7 +12958,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>328</v>
@@ -13092,7 +13072,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>329</v>
@@ -13208,7 +13188,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>330</v>
@@ -13320,7 +13300,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>333</v>
@@ -13432,7 +13412,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>336</v>
@@ -13546,7 +13526,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>340</v>
@@ -13660,7 +13640,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>344</v>
@@ -13774,13 +13754,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
@@ -13805,7 +13785,7 @@
         <v>234</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>257</v>
@@ -13888,7 +13868,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>260</v>
@@ -14000,7 +13980,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>261</v>
@@ -14114,7 +14094,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>262</v>
@@ -14226,7 +14206,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>266</v>
@@ -14338,7 +14318,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>269</v>
@@ -14452,14 +14432,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14478,13 +14458,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14547,16 +14527,16 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14564,7 +14544,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>278</v>
@@ -14676,7 +14656,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>282</v>
@@ -14788,7 +14768,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>283</v>
@@ -14902,7 +14882,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15018,7 +14998,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>285</v>
@@ -15132,7 +15112,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15246,7 +15226,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>296</v>
@@ -15358,7 +15338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>300</v>
@@ -15470,7 +15450,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>301</v>
@@ -15584,7 +15564,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>302</v>
@@ -15700,7 +15680,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>303</v>
@@ -15812,7 +15792,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>308</v>
@@ -15926,7 +15906,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>312</v>
@@ -16038,7 +16018,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>315</v>
@@ -16150,7 +16130,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>317</v>
@@ -16262,7 +16242,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>320</v>
@@ -16374,7 +16354,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>323</v>
@@ -16486,7 +16466,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>327</v>
@@ -16598,7 +16578,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>328</v>
@@ -16712,7 +16692,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>329</v>
@@ -16828,7 +16808,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>330</v>
@@ -16940,7 +16920,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>333</v>
@@ -17052,7 +17032,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>336</v>
@@ -17166,7 +17146,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>340</v>
@@ -17280,7 +17260,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>344</v>
@@ -17394,13 +17374,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>78</v>
@@ -17508,7 +17488,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>260</v>
@@ -17620,7 +17600,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>261</v>
@@ -17734,7 +17714,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>262</v>
@@ -17846,7 +17826,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>266</v>
@@ -17958,7 +17938,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>269</v>
@@ -18072,7 +18052,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>274</v>
@@ -18098,13 +18078,13 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18167,13 +18147,13 @@
         <v>78</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>78</v>
@@ -18184,7 +18164,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>278</v>
@@ -18296,7 +18276,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>282</v>
@@ -18408,7 +18388,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>283</v>
@@ -18522,7 +18502,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18638,7 +18618,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>285</v>
@@ -18752,7 +18732,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18866,7 +18846,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>296</v>
@@ -18978,7 +18958,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>300</v>
@@ -19090,7 +19070,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>301</v>
@@ -19204,7 +19184,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>302</v>
@@ -19320,7 +19300,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>303</v>
@@ -19432,7 +19412,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>308</v>
@@ -19546,7 +19526,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>312</v>
@@ -19658,7 +19638,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>315</v>
@@ -19770,7 +19750,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>317</v>
@@ -19882,7 +19862,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>320</v>
@@ -19994,7 +19974,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>323</v>
@@ -20106,7 +20086,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>327</v>
@@ -20218,7 +20198,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>328</v>
@@ -20332,7 +20312,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>329</v>
@@ -20448,7 +20428,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>330</v>
@@ -20560,7 +20540,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>333</v>
@@ -20672,7 +20652,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>336</v>
@@ -20786,7 +20766,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>340</v>
@@ -20900,7 +20880,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>344</v>
@@ -21014,13 +20994,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21128,7 +21108,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>260</v>
@@ -21240,7 +21220,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>261</v>
@@ -21354,7 +21334,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>262</v>
@@ -21466,7 +21446,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>266</v>
@@ -21578,7 +21558,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>269</v>
@@ -21692,7 +21672,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>274</v>
@@ -21718,13 +21698,13 @@
         <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21787,13 +21767,13 @@
         <v>78</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>78</v>
@@ -21804,7 +21784,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>278</v>
@@ -21916,7 +21896,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>282</v>
@@ -22028,7 +22008,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>283</v>
@@ -22142,7 +22122,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22258,7 +22238,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>285</v>
@@ -22372,7 +22352,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22486,7 +22466,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>296</v>
@@ -22598,7 +22578,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>300</v>
@@ -22710,7 +22690,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>301</v>
@@ -22824,7 +22804,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>302</v>
@@ -22940,7 +22920,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>303</v>
@@ -23052,7 +23032,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>308</v>
@@ -23166,7 +23146,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>312</v>
@@ -23278,7 +23258,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>315</v>
@@ -23390,7 +23370,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>317</v>
@@ -23502,7 +23482,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>320</v>
@@ -23614,7 +23594,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>323</v>
@@ -23726,7 +23706,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>327</v>
@@ -23838,7 +23818,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>328</v>
@@ -23952,7 +23932,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>329</v>
@@ -24068,7 +24048,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>330</v>
@@ -24180,7 +24160,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>333</v>
@@ -24292,7 +24272,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>336</v>
@@ -24406,7 +24386,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>340</v>
@@ -24520,7 +24500,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>344</v>
@@ -24634,13 +24614,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>78</v>
@@ -24748,7 +24728,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>260</v>
@@ -24860,7 +24840,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>261</v>
@@ -24974,7 +24954,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>262</v>
@@ -25086,7 +25066,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>266</v>
@@ -25198,7 +25178,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>269</v>
@@ -25312,7 +25292,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>274</v>
@@ -25338,13 +25318,13 @@
         <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25407,13 +25387,13 @@
         <v>78</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>78</v>
@@ -25424,7 +25404,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>278</v>
@@ -25536,7 +25516,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>282</v>
@@ -25648,7 +25628,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>283</v>
@@ -25762,7 +25742,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25878,7 +25858,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>285</v>
@@ -25992,7 +25972,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26106,7 +26086,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>296</v>
@@ -26218,7 +26198,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>300</v>
@@ -26330,7 +26310,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>301</v>
@@ -26444,7 +26424,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>302</v>
@@ -26560,7 +26540,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>303</v>
@@ -26672,7 +26652,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>308</v>
@@ -26786,7 +26766,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>312</v>
@@ -26898,7 +26878,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>315</v>
@@ -27010,7 +26990,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>317</v>
@@ -27122,7 +27102,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>320</v>
@@ -27234,7 +27214,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>323</v>
@@ -27346,7 +27326,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>327</v>
@@ -27458,7 +27438,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>328</v>
@@ -27572,7 +27552,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>329</v>
@@ -27688,7 +27668,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>330</v>
@@ -27800,7 +27780,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>333</v>
@@ -27912,7 +27892,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>336</v>
@@ -28026,7 +28006,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>340</v>
@@ -28140,7 +28120,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>344</v>
@@ -28254,13 +28234,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>78</v>
@@ -28368,7 +28348,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>260</v>
@@ -28480,7 +28460,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>261</v>
@@ -28594,7 +28574,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>262</v>
@@ -28706,7 +28686,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>266</v>
@@ -28818,7 +28798,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>269</v>
@@ -28932,7 +28912,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>274</v>
@@ -28958,13 +28938,13 @@
         <v>78</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29027,13 +29007,13 @@
         <v>78</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>78</v>
@@ -29044,7 +29024,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>278</v>
@@ -29156,7 +29136,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>282</v>
@@ -29268,7 +29248,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>283</v>
@@ -29382,7 +29362,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29498,7 +29478,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>285</v>
@@ -29612,7 +29592,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29726,7 +29706,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>296</v>
@@ -29838,7 +29818,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>300</v>
@@ -29950,7 +29930,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>301</v>
@@ -30064,7 +30044,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>302</v>
@@ -30180,7 +30160,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>303</v>
@@ -30292,7 +30272,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>308</v>
@@ -30406,7 +30386,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>312</v>
@@ -30518,7 +30498,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>315</v>
@@ -30630,7 +30610,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>317</v>
@@ -30742,7 +30722,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>320</v>
@@ -30854,7 +30834,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>323</v>
@@ -30966,7 +30946,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>327</v>
@@ -31078,7 +31058,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>328</v>
@@ -31192,7 +31172,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>329</v>
@@ -31308,7 +31288,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>330</v>
@@ -31420,7 +31400,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>333</v>
@@ -31532,7 +31512,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>336</v>
@@ -31646,7 +31626,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>340</v>
@@ -31760,7 +31740,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>344</v>
@@ -31874,13 +31854,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>78</v>
@@ -31988,7 +31968,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>260</v>
@@ -32100,7 +32080,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>261</v>
@@ -32214,7 +32194,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>262</v>
@@ -32326,7 +32306,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>266</v>
@@ -32438,7 +32418,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>269</v>
@@ -32552,7 +32532,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>274</v>
@@ -32578,13 +32558,13 @@
         <v>78</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -32647,13 +32627,13 @@
         <v>78</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK263" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>78</v>
@@ -32664,7 +32644,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>278</v>
@@ -32776,7 +32756,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>282</v>
@@ -32888,7 +32868,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>283</v>
@@ -33002,7 +32982,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33118,7 +33098,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>285</v>
@@ -33232,7 +33212,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33346,7 +33326,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>296</v>
@@ -33458,7 +33438,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>300</v>
@@ -33570,7 +33550,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>301</v>
@@ -33684,7 +33664,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>302</v>
@@ -33800,7 +33780,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>303</v>
@@ -33912,7 +33892,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>308</v>
@@ -34026,7 +34006,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>312</v>
@@ -34138,7 +34118,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>315</v>
@@ -34250,7 +34230,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>317</v>
@@ -34362,7 +34342,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>320</v>
@@ -34474,7 +34454,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>323</v>
@@ -34586,7 +34566,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>327</v>
@@ -34698,7 +34678,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>328</v>
@@ -34812,7 +34792,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>329</v>
@@ -34928,7 +34908,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>330</v>
@@ -35040,7 +35020,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>333</v>
@@ -35152,7 +35132,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>336</v>
@@ -35266,7 +35246,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>340</v>
@@ -35380,7 +35360,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>344</v>
@@ -35494,13 +35474,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>78</v>
@@ -35608,7 +35588,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>260</v>
@@ -35720,7 +35700,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>261</v>
@@ -35834,7 +35814,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>262</v>
@@ -35946,7 +35926,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>266</v>
@@ -36058,7 +36038,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>269</v>
@@ -36172,14 +36152,14 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36198,13 +36178,13 @@
         <v>78</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -36267,13 +36247,13 @@
         <v>78</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK295" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>78</v>
@@ -36284,7 +36264,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>278</v>
@@ -36396,7 +36376,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>282</v>
@@ -36508,7 +36488,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>283</v>
@@ -36622,7 +36602,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36738,7 +36718,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>285</v>
@@ -36852,7 +36832,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -36966,7 +36946,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>296</v>
@@ -37078,7 +37058,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>300</v>
@@ -37190,7 +37170,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>301</v>
@@ -37304,7 +37284,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>302</v>
@@ -37420,7 +37400,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>303</v>
@@ -37532,7 +37512,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>308</v>
@@ -37646,7 +37626,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>312</v>
@@ -37758,7 +37738,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>315</v>
@@ -37870,7 +37850,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>317</v>
@@ -37982,7 +37962,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>320</v>
@@ -38094,7 +38074,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>323</v>
@@ -38206,7 +38186,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>327</v>
@@ -38318,7 +38298,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>328</v>
@@ -38432,7 +38412,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>329</v>
@@ -38548,7 +38528,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>330</v>
@@ -38660,7 +38640,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>333</v>
@@ -38772,7 +38752,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>336</v>
@@ -38886,7 +38866,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>340</v>
@@ -39000,7 +38980,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>344</v>
@@ -39114,13 +39094,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>78</v>
@@ -39228,7 +39208,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>260</v>
@@ -39340,7 +39320,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>261</v>
@@ -39454,7 +39434,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>262</v>
@@ -39566,7 +39546,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>266</v>
@@ -39678,7 +39658,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>269</v>
@@ -39792,7 +39772,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>274</v>
@@ -39818,13 +39798,13 @@
         <v>78</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -39887,13 +39867,13 @@
         <v>78</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK327" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>78</v>
@@ -39904,7 +39884,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>278</v>
@@ -40016,7 +39996,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>282</v>
@@ -40128,7 +40108,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>283</v>
@@ -40242,7 +40222,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40358,7 +40338,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>285</v>
@@ -40472,7 +40452,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40586,7 +40566,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>296</v>
@@ -40698,7 +40678,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>300</v>
@@ -40810,7 +40790,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>301</v>
@@ -40924,7 +40904,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>302</v>
@@ -41040,7 +41020,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>303</v>
@@ -41152,7 +41132,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>308</v>
@@ -41266,7 +41246,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>312</v>
@@ -41378,7 +41358,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>315</v>
@@ -41490,7 +41470,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>317</v>
@@ -41602,7 +41582,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>320</v>
@@ -41714,7 +41694,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>323</v>
@@ -41826,7 +41806,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>327</v>
@@ -41938,7 +41918,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>328</v>
@@ -42052,7 +42032,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>329</v>
@@ -42168,7 +42148,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>330</v>
@@ -42280,7 +42260,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>333</v>
@@ -42392,7 +42372,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>336</v>
@@ -42506,7 +42486,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>340</v>
@@ -42620,7 +42600,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>344</v>
@@ -42734,13 +42714,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>78</v>
@@ -42848,7 +42828,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>260</v>
@@ -42960,7 +42940,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>261</v>
@@ -43074,7 +43054,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>262</v>
@@ -43186,7 +43166,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>266</v>
@@ -43298,7 +43278,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>269</v>
@@ -43412,7 +43392,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>274</v>
@@ -43438,16 +43418,16 @@
         <v>78</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43515,7 +43495,7 @@
         <v>78</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>78</v>
@@ -43526,7 +43506,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>278</v>
@@ -43638,7 +43618,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>282</v>
@@ -43750,7 +43730,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>283</v>
@@ -43864,7 +43844,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>284</v>
@@ -43980,7 +43960,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>285</v>
@@ -44094,7 +44074,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>291</v>
@@ -44208,7 +44188,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>296</v>
@@ -44320,7 +44300,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>300</v>
@@ -44432,7 +44412,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>301</v>
@@ -44546,7 +44526,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>302</v>
@@ -44662,7 +44642,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>303</v>
@@ -44774,7 +44754,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>308</v>
@@ -44888,7 +44868,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>312</v>
@@ -45000,7 +44980,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>315</v>
@@ -45112,7 +45092,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>317</v>
@@ -45224,7 +45204,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>320</v>
@@ -45336,7 +45316,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>323</v>
@@ -45448,7 +45428,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>327</v>
@@ -45560,7 +45540,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>328</v>
@@ -45674,7 +45654,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>329</v>
@@ -45790,7 +45770,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>330</v>
@@ -45902,7 +45882,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>333</v>
@@ -46014,7 +45994,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>336</v>
@@ -46128,7 +46108,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>340</v>
@@ -46242,7 +46222,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>344</v>
@@ -46356,13 +46336,13 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>78</v>
@@ -46470,7 +46450,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>260</v>
@@ -46582,7 +46562,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>261</v>
@@ -46696,7 +46676,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>262</v>
@@ -46808,7 +46788,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>266</v>
@@ -46920,7 +46900,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>269</v>
@@ -47034,14 +47014,14 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47060,13 +47040,13 @@
         <v>78</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -47129,13 +47109,13 @@
         <v>78</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK391" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>78</v>
@@ -47146,7 +47126,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>278</v>
@@ -47258,7 +47238,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>282</v>
@@ -47370,7 +47350,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>283</v>
@@ -47484,7 +47464,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>284</v>
@@ -47600,7 +47580,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>285</v>
@@ -47714,7 +47694,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>291</v>
@@ -47828,7 +47808,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>296</v>
@@ -47940,7 +47920,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>300</v>
@@ -48052,7 +48032,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>301</v>
@@ -48166,7 +48146,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>302</v>
@@ -48282,7 +48262,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>303</v>
@@ -48394,7 +48374,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>308</v>
@@ -48508,7 +48488,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>312</v>
@@ -48620,7 +48600,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>315</v>
@@ -48732,7 +48712,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>317</v>
@@ -48844,7 +48824,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>320</v>
@@ -48956,7 +48936,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>323</v>
@@ -49068,7 +49048,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>327</v>
@@ -49180,7 +49160,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>328</v>
@@ -49294,7 +49274,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>329</v>
@@ -49410,7 +49390,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>330</v>
@@ -49522,7 +49502,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>333</v>
@@ -49634,7 +49614,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>336</v>
@@ -49748,7 +49728,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>340</v>
@@ -49862,7 +49842,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>344</v>
@@ -49976,13 +49956,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>78</v>
@@ -50090,7 +50070,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>260</v>
@@ -50202,7 +50182,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>261</v>
@@ -50316,7 +50296,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>262</v>
@@ -50428,7 +50408,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>266</v>
@@ -50540,7 +50520,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>269</v>
@@ -50654,14 +50634,14 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -50680,16 +50660,16 @@
         <v>78</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -50751,13 +50731,13 @@
         <v>78</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>782</v>
+        <v>78</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>78</v>
@@ -50768,7 +50748,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>278</v>
@@ -50880,7 +50860,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>282</v>
@@ -50992,7 +50972,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>283</v>
@@ -51106,7 +51086,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>284</v>
@@ -51222,7 +51202,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>285</v>
@@ -51336,7 +51316,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>291</v>
@@ -51450,7 +51430,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>296</v>
@@ -51562,7 +51542,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>300</v>
@@ -51674,7 +51654,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>301</v>
@@ -51788,7 +51768,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>302</v>
@@ -51904,7 +51884,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>303</v>
@@ -52016,7 +51996,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>308</v>
@@ -52130,7 +52110,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>312</v>
@@ -52242,7 +52222,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>315</v>
@@ -52354,7 +52334,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>317</v>
@@ -52466,7 +52446,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>320</v>
@@ -52578,7 +52558,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>323</v>
@@ -52690,7 +52670,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>327</v>
@@ -52802,7 +52782,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>328</v>
@@ -52916,7 +52896,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>329</v>
@@ -53032,7 +53012,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>330</v>
@@ -53144,7 +53124,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>333</v>
@@ -53256,7 +53236,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>336</v>
@@ -53370,7 +53350,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>340</v>
@@ -53484,7 +53464,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>344</v>
@@ -53598,10 +53578,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -53624,7 +53604,7 @@
         <v>89</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L449" t="s" s="2">
         <v>91</v>
@@ -53633,10 +53613,10 @@
         <v>92</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P449" t="s" s="2">
         <v>78</v>
@@ -53685,7 +53665,7 @@
         <v>78</v>
       </c>
       <c r="AF449" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AG449" t="s" s="2">
         <v>79</v>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationprescription.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -408,7 +408,7 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -440,7 +440,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -458,7 +458,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -496,7 +496,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -505,7 +505,7 @@
     <t>Bundle.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -851,7 +851,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>Bundle.entry.link</t>
@@ -1720,11 +1720,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2827,17 +2827,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.6015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2846,26 +2846,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10793,7 +10793,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>88</v>
@@ -14415,7 +14415,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -17949,7 +17949,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>88</v>
@@ -18035,7 +18035,7 @@
         <v>78</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>78</v>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>88</v>
@@ -21655,7 +21655,7 @@
         <v>78</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>78</v>
@@ -25189,7 +25189,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>88</v>
@@ -25275,7 +25275,7 @@
         <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>78</v>
@@ -28809,7 +28809,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>88</v>
@@ -28895,7 +28895,7 @@
         <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK230" t="s" s="2">
         <v>78</v>
@@ -32429,7 +32429,7 @@
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G262" t="s" s="2">
         <v>88</v>
@@ -32515,7 +32515,7 @@
         <v>78</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK262" t="s" s="2">
         <v>78</v>
@@ -36049,7 +36049,7 @@
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>88</v>
@@ -36135,7 +36135,7 @@
         <v>78</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK294" t="s" s="2">
         <v>78</v>
@@ -39669,7 +39669,7 @@
       </c>
       <c r="E326" s="2"/>
       <c r="F326" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G326" t="s" s="2">
         <v>88</v>
@@ -39755,7 +39755,7 @@
         <v>78</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK326" t="s" s="2">
         <v>78</v>
